--- a/data/HEART_DISEASE_DB.xlsx
+++ b/data/HEART_DISEASE_DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alejandro.puerta\Documents\Clases\SI\SI_2023_2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SI_2023_2\SI_2023_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA1FDC3C-7F8C-4A0E-B6AD-E1238E9AC4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5564AA7A-82FB-4A75-BEF2-CB74BDEAC892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEART_DISEASE_DB" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -698,7 +698,9 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{E11DFC0E-7460-43B6-94B1-3724626084D6}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1006,11 +1008,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N19"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
